--- a/data/評分項目_2025Q1問卷.xlsx
+++ b/data/評分項目_2025Q1問卷.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\問卷\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE48816-D9F9-4EA5-8620-5E759E2A5208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7999F-DF75-4529-B163-4EB76F8BD2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通評" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>主動積極性</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>責任感與敬業度</t>
-  </si>
-  <si>
-    <t>領導、輔佐與追隨力</t>
   </si>
   <si>
     <t>大項目</t>
@@ -142,29 +139,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>領導：「指明目標，激勵士氣，判斷決策，承擔責任」二把手Pool</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-、輔佐：「能準確理解領導者目標，提供資訊與支援」
-、追隨：「積極的參與者，高效執行任務，不盲從不隱瞞」</t>
-    </r>
+    <t>輔佐：「能準確理解領導者目標，提供資訊與支援」</t>
+  </si>
+  <si>
+    <t>追隨：「積極的參與者，高效執行任務，不盲從不隱瞞」</t>
+  </si>
+  <si>
+    <t>領導：「指明目標，激勵士氣，判斷決策，承擔責任」二把手Pool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>領導</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輔佐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追隨力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,6 +424,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,10 +712,10 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -732,10 +728,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2</v>
@@ -746,28 +742,28 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -776,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -787,16 +783,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="21"/>
       <c r="B7" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -807,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -816,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -825,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -834,24 +830,42 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23"/>
       <c r="B12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -859,7 +873,7 @@
   <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A8:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
